--- a/biology/Zoologie/Burmascutum/Burmascutum.xlsx
+++ b/biology/Zoologie/Burmascutum/Burmascutum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Burmascutidae
-Burmascutum, unique représentant de la famille des Burmascutidae, est un genre fossile d'araignées aranéomorphes[1].
+Burmascutum, unique représentant de la famille des Burmascutidae, est un genre fossile d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 19.5[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 19.5 :
 † Burmascutum aenigma Wunderlich, 2008
 † Burmascutum brevis Wunderlich, 2018</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wunderlich, 2008 : The dominance of ancient spider families of the Araneae: Haplogyne in the Cretaceous, and the late diversification of advanced ecribellate spiders of the Entelegynae after the Cretaceous–Tertiary boundary extinction events, with descriptions of new families. Beiträge zur Araneologie, vol. 5, p. 524–675 (en).</t>
         </is>
